--- a/data/trans_dic/P22$concerIndv-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P22$concerIndv-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,32; 8,81</t>
+          <t>3,15; 8,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,01; 10,15</t>
+          <t>3,81; 10,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,93; 8,28</t>
+          <t>3,05; 8,08</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,6; 12,31</t>
+          <t>3,6; 11,91</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,3; 9,42</t>
+          <t>2,96; 9,78</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,93; 8,81</t>
+          <t>2,97; 8,51</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,85; 8,71</t>
+          <t>2,97; 8,82</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,92; 14,43</t>
+          <t>7,8; 14,13</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,85; 7,95</t>
+          <t>3,81; 7,97</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>4,12; 8,01</t>
+          <t>4,0; 8,34</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>3,37; 7,5</t>
+          <t>3,5; 7,46</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>6,2; 11,32</t>
+          <t>6,18; 11,51</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,66; 3,62</t>
+          <t>0,65; 3,5</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,81; 5,61</t>
+          <t>1,8; 5,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,41; 2,89</t>
+          <t>0,41; 2,74</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,49; 4,67</t>
+          <t>1,53; 4,73</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,49; 4,35</t>
+          <t>1,54; 4,9</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,61; 6,6</t>
+          <t>2,54; 6,41</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,7; 4,98</t>
+          <t>1,72; 4,77</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,99; 4,76</t>
+          <t>2,11; 5,08</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,41; 3,53</t>
+          <t>1,42; 3,39</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,75; 5,4</t>
+          <t>2,73; 5,32</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,32; 3,28</t>
+          <t>1,27; 3,16</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,09; 4,31</t>
+          <t>2,1; 4,17</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,14; 5,0</t>
+          <t>1,17; 4,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,6; 4,45</t>
+          <t>0,32; 4,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,57; 3,19</t>
+          <t>0,55; 2,95</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,58; 8,03</t>
+          <t>3,68; 8,45</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,3; 2,67</t>
+          <t>0,3; 2,9</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,52; 4,52</t>
+          <t>0,53; 4,43</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,58; 3,49</t>
+          <t>0,57; 3,43</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,24; 9,69</t>
+          <t>5,18; 9,81</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,01; 3,19</t>
+          <t>1,01; 3,08</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,85; 3,85</t>
+          <t>0,86; 3,54</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,83; 2,85</t>
+          <t>0,74; 2,72</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,86; 8,06</t>
+          <t>4,96; 8,12</t>
         </is>
       </c>
     </row>
@@ -1149,57 +1150,57 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,84; 4,01</t>
+          <t>0,84; 3,92</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,68; 8,77</t>
+          <t>3,75; 8,85</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,86; 13,28</t>
+          <t>5,8; 13,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,07; 4,15</t>
+          <t>1,07; 4,26</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,72; 5,26</t>
+          <t>1,69; 5,23</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,64; 8,94</t>
+          <t>3,87; 9,22</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,42; 8,53</t>
+          <t>3,41; 8,24</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,79; 2,5</t>
+          <t>0,77; 2,64</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,62; 3,86</t>
+          <t>1,68; 4,01</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,21; 7,99</t>
+          <t>4,38; 8,09</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,6; 9,21</t>
+          <t>4,79; 9,63</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,24; 5,78</t>
+          <t>1,24; 5,62</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,22; 7,72</t>
+          <t>1,89; 8,1</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,96</t>
+          <t>0,0; 2,57</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,64; 7,91</t>
+          <t>2,75; 8,08</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,9; 9,18</t>
+          <t>3,02; 9,6</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,41; 10,16</t>
+          <t>3,43; 10,21</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,23</t>
+          <t>0,0; 2,28</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,42; 9,74</t>
+          <t>4,12; 9,21</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,65; 6,78</t>
+          <t>2,71; 6,7</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3,33; 7,54</t>
+          <t>3,32; 7,34</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,2; 1,66</t>
+          <t>0,21; 1,87</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,08; 7,81</t>
+          <t>3,97; 7,63</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,73</t>
+          <t>0,0; 2,38</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,35; 4,29</t>
+          <t>0,33; 5,35</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,35; 3,05</t>
+          <t>0,35; 3,36</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,92; 7,84</t>
+          <t>2,9; 7,28</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,36; 2,96</t>
+          <t>0,36; 3,56</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,35; 3,87</t>
+          <t>0,35; 3,67</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,37; 3,04</t>
+          <t>0,36; 3,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4,0; 9,02</t>
+          <t>3,96; 8,91</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,37; 2,15</t>
+          <t>0,37; 2,17</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0,53; 3,34</t>
+          <t>0,51; 3,13</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,39; 2,43</t>
+          <t>0,38; 2,29</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>3,71; 7,33</t>
+          <t>3,96; 7,31</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,65; 4,47</t>
+          <t>1,69; 4,38</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,25; 4,03</t>
+          <t>1,33; 4,1</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,43; 7,09</t>
+          <t>3,39; 7,2</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>10,85; 16,78</t>
+          <t>10,93; 16,92</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,3; 7,13</t>
+          <t>3,21; 6,72</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,43; 3,91</t>
+          <t>1,38; 3,92</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,87; 7,59</t>
+          <t>4,05; 7,6</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,72; 18,41</t>
+          <t>6,54; 18,35</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,89; 5,19</t>
+          <t>2,93; 5,19</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>1,63; 3,56</t>
+          <t>1,59; 3,41</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>4,23; 6,63</t>
+          <t>4,17; 6,67</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>8,01; 16,24</t>
+          <t>8,43; 16,02</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,97; 5,97</t>
+          <t>3,03; 6,11</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3,04; 6,19</t>
+          <t>3,04; 6,15</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2,38; 5,32</t>
+          <t>2,26; 5,34</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,85; 3,72</t>
+          <t>0,88; 3,8</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>4,34; 7,76</t>
+          <t>4,34; 8,02</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>2,35; 5,14</t>
+          <t>2,31; 4,94</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>5,29; 8,93</t>
+          <t>5,1; 8,63</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>4,3; 7,27</t>
+          <t>4,28; 7,46</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>4,03; 6,29</t>
+          <t>4,08; 6,34</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>2,99; 4,98</t>
+          <t>3,05; 5,01</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>4,09; 6,47</t>
+          <t>4,19; 6,51</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>2,29; 4,91</t>
+          <t>2,4; 5,03</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,29; 3,4</t>
+          <t>2,31; 3,4</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>2,64; 3,93</t>
+          <t>2,66; 3,95</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,78; 3,99</t>
+          <t>2,75; 4,09</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>4,58; 6,99</t>
+          <t>4,66; 7,06</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>3,3; 4,62</t>
+          <t>3,28; 4,66</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>2,76; 4,01</t>
+          <t>2,71; 4,05</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>3,68; 5,16</t>
+          <t>3,77; 5,25</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>6,38; 8,7</t>
+          <t>6,27; 8,7</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>2,97; 3,85</t>
+          <t>2,9; 3,82</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>2,89; 3,81</t>
+          <t>2,87; 3,74</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>3,51; 4,45</t>
+          <t>3,48; 4,45</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>5,98; 7,68</t>
+          <t>5,97; 7,6</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que, al menor, es beneficiaria de Seguro Médico concertado individualmente</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>15014</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>18799</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>15338</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>19720</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>15079</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>15237</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>14690</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>30671</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>30093</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>34037</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>30028</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>50391</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>8568; 23708</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>11229; 30462</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>8972; 23723</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>11211; 37086</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>7727; 25498</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>8536; 24435</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>8532; 25368</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>22588; 40933</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>20285; 42472</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>23294; 48544</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>20341; 43396</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>37155; 69202</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>8866</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>17034</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>6030</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>14532</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>13755</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>22696</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>15567</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>16791</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>22621</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>39731</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>21597</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>31324</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>3210; 17279</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>9077; 28843</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>2064; 13764</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>7933; 24519</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>7749; 24716</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>13283; 33593</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>8982; 24945</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>10888; 26139</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>14118; 33815</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>28083; 54712</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>13035; 32433</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>21737; 43049</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>8253</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>5984</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>4580</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>17471</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>3919</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>6354</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>5690</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>24848</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>12171</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>12338</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>10269</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>42319</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>3744; 15444</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1050; 14871</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1756; 9332</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>11628; 26697</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>1012; 9720</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1803; 15105</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1903; 11528</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>18083; 34236</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>6592; 20121</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>5690; 23517</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>4805; 17773</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>32962; 54043</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>2104</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>7422</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>22081</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>27787</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>8729</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>12315</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>23401</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>28073</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>10833</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>19737</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>45482</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>55860</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 7103</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>3127; 14644</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>13883; 32726</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>18121; 41246</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>3972; 15795</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>6580; 20347</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>15006; 35702</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>16215; 39222</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>5622; 19184</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>12830; 30581</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>33187; 61245</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>37723; 75892</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>6010</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>8890</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1779</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>8449</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>11379</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>13146</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>887</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>13425</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>17389</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>22036</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>2666</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>21875</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2514; 11422</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>4025; 17218</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 5419</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>4922; 14440</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>6263; 19945</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>7540; 22424</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0; 4994</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>8591; 19224</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>11142; 27547</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>14348; 31743</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>883; 8019</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>15389; 29560</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>2121</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>3900</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>2973</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>13024</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>3221</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>3783</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>3088</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>15598</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>5342</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>7683</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>6061</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>28623</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 6455</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>902; 14652</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>930; 8854</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>7815; 19629</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>1009; 9888</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>987; 10268</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>996; 8188</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>10188; 22902</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>2051; 11923</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>2822; 17337</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>2062; 12290</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>20844; 38481</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>17615</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>15944</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>33015</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>84411</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>30955</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>16739</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>38653</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>111832</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>48570</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>32683</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>71668</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>196243</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>10393; 26920</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>8783; 27161</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>22185; 47039</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>68249; 105625</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>20420; 42779</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>9566; 27172</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>27798; 52178</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>55566; 155784</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>36633; 64882</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>21563; 46271</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>55815; 89417</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>124162; 236022</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>32099</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>34201</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>28145</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>21963</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>45742</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>28499</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>55778</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>40957</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>77841</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>62700</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>83923</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>62920</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>22500; 45317</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>23709; 47888</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>17620; 41543</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>8133; 35311</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>34030; 62877</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>19058; 40669</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>42129; 71311</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>30597; 53387</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>62227; 96732</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>48931; 80266</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>67235; 104542</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>39451; 82737</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>654</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>92082</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>112174</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>113939</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>207358</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>132778</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>118770</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>157755</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>282196</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>224860</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>230944</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>271694</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>489554</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>75537; 111272</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>91137; 135348</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>93270; 138724</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>161243; 244335</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>110874; 157521</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>96570; 144198</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>133323; 185772</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>229379; 318533</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>193013; 253601</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>200265; 261234</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>241127; 308326</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>425087; 540954</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>